--- a/Study 3/Shocks/GCAM/NDC_EI - 2040.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2040.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.00731764806837764</v>
+        <v>0.007317648068377639</v>
       </c>
     </row>
     <row r="3">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.03656130099251824</v>
+        <v>0.03656130099251825</v>
       </c>
     </row>
     <row r="5">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.4109959576861433</v>
+        <v>0.4109959576861432</v>
       </c>
     </row>
     <row r="7">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2242636432078797</v>
+        <v>0.2242636432078798</v>
       </c>
     </row>
     <row r="9">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.05251495482524565</v>
+        <v>0.05251495482524563</v>
       </c>
     </row>
     <row r="11">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.1386337770008727</v>
+        <v>0.1386337770008728</v>
       </c>
     </row>
     <row r="13">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0004288119542386936</v>
+        <v>0.0004288119542386935</v>
       </c>
     </row>
     <row r="27">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.09371527081874222</v>
+        <v>0.0937152708187422</v>
       </c>
     </row>
     <row r="39">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.1251056609965111</v>
+        <v>0.1251056609965112</v>
       </c>
     </row>
     <row r="41">
